--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10428,7 +10428,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:11.936063</t>
+    <t>2025-03-05 16:14:39.905023</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10428,13 +10428,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:39.905023</t>
+    <t>2025-03-19 12:18:07.257098</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16474" uniqueCount="3479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16472" uniqueCount="3479">
   <si>
     <t>identificatie</t>
   </si>
@@ -3189,18 +3189,18 @@
     <t>meetnet</t>
   </si>
   <si>
+    <t>ligging-aquifer_hcovv2</t>
+  </si>
+  <si>
+    <t>aquifer_hcovv2</t>
+  </si>
+  <si>
     <t>ligging-aquifer</t>
   </si>
   <si>
     <t>aquifer</t>
   </si>
   <si>
-    <t>ligging-aquifer_hcovv2</t>
-  </si>
-  <si>
-    <t>aquifer_hcovv2</t>
-  </si>
-  <si>
     <t>ligging-grondwaterlichaam</t>
   </si>
   <si>
@@ -3513,6 +3513,408 @@
     <t>meetnet 20 - eDOV erkende boorbedrijven</t>
   </si>
   <si>
+    <t>A0000</t>
+  </si>
+  <si>
+    <t>A0100</t>
+  </si>
+  <si>
+    <t>A0200</t>
+  </si>
+  <si>
+    <t>A0300</t>
+  </si>
+  <si>
+    <t>A0110</t>
+  </si>
+  <si>
+    <t>A0120</t>
+  </si>
+  <si>
+    <t>A0130</t>
+  </si>
+  <si>
+    <t>A0131</t>
+  </si>
+  <si>
+    <t>A0132</t>
+  </si>
+  <si>
+    <t>A0133</t>
+  </si>
+  <si>
+    <t>A0134</t>
+  </si>
+  <si>
+    <t>A0140</t>
+  </si>
+  <si>
+    <t>A0150</t>
+  </si>
+  <si>
+    <t>A0151</t>
+  </si>
+  <si>
+    <t>A0152</t>
+  </si>
+  <si>
+    <t>A0153</t>
+  </si>
+  <si>
+    <t>A0160</t>
+  </si>
+  <si>
+    <t>A0161</t>
+  </si>
+  <si>
+    <t>A0162</t>
+  </si>
+  <si>
+    <t>A0163</t>
+  </si>
+  <si>
+    <t>A0164</t>
+  </si>
+  <si>
+    <t>A0165</t>
+  </si>
+  <si>
+    <t>A0170</t>
+  </si>
+  <si>
+    <t>A0180</t>
+  </si>
+  <si>
+    <t>A0181</t>
+  </si>
+  <si>
+    <t>A0182</t>
+  </si>
+  <si>
+    <t>A0183</t>
+  </si>
+  <si>
+    <t>A0184</t>
+  </si>
+  <si>
+    <t>A0185</t>
+  </si>
+  <si>
+    <t>A0186</t>
+  </si>
+  <si>
+    <t>A0187</t>
+  </si>
+  <si>
+    <t>A0188</t>
+  </si>
+  <si>
+    <t>A0189</t>
+  </si>
+  <si>
+    <t>A0210</t>
+  </si>
+  <si>
+    <t>A0220</t>
+  </si>
+  <si>
+    <t>A0221</t>
+  </si>
+  <si>
+    <t>A0222</t>
+  </si>
+  <si>
+    <t>A0223</t>
+  </si>
+  <si>
+    <t>A0224</t>
+  </si>
+  <si>
+    <t>A0225</t>
+  </si>
+  <si>
+    <t>A0226</t>
+  </si>
+  <si>
+    <t>A0230</t>
+  </si>
+  <si>
+    <t>A0231</t>
+  </si>
+  <si>
+    <t>A0232</t>
+  </si>
+  <si>
+    <t>A0233</t>
+  </si>
+  <si>
+    <t>A0234</t>
+  </si>
+  <si>
+    <t>A0235</t>
+  </si>
+  <si>
+    <t>A0236</t>
+  </si>
+  <si>
+    <t>A0237</t>
+  </si>
+  <si>
+    <t>A0238</t>
+  </si>
+  <si>
+    <t>A0240</t>
+  </si>
+  <si>
+    <t>A0250</t>
+  </si>
+  <si>
+    <t>A0251</t>
+  </si>
+  <si>
+    <t>A0252</t>
+  </si>
+  <si>
+    <t>A0253</t>
+  </si>
+  <si>
+    <t>A0254</t>
+  </si>
+  <si>
+    <t>A0255</t>
+  </si>
+  <si>
+    <t>A0256</t>
+  </si>
+  <si>
+    <t>A0257</t>
+  </si>
+  <si>
+    <t>A0258</t>
+  </si>
+  <si>
+    <t>A0301</t>
+  </si>
+  <si>
+    <t>A0302</t>
+  </si>
+  <si>
+    <t>A0303</t>
+  </si>
+  <si>
+    <t>A0304</t>
+  </si>
+  <si>
+    <t>A0305</t>
+  </si>
+  <si>
+    <t>A0400</t>
+  </si>
+  <si>
+    <t>A0410</t>
+  </si>
+  <si>
+    <t>A0420</t>
+  </si>
+  <si>
+    <t>A0430</t>
+  </si>
+  <si>
+    <t>A0431</t>
+  </si>
+  <si>
+    <t>A0432</t>
+  </si>
+  <si>
+    <t>A0433</t>
+  </si>
+  <si>
+    <t>A0434</t>
+  </si>
+  <si>
+    <t>A0440</t>
+  </si>
+  <si>
+    <t>A0441</t>
+  </si>
+  <si>
+    <t>A0442</t>
+  </si>
+  <si>
+    <t>A0450</t>
+  </si>
+  <si>
+    <t>A0451</t>
+  </si>
+  <si>
+    <t>A0452</t>
+  </si>
+  <si>
+    <t>A0453</t>
+  </si>
+  <si>
+    <t>A0500</t>
+  </si>
+  <si>
+    <t>A0501</t>
+  </si>
+  <si>
+    <t>A0502</t>
+  </si>
+  <si>
+    <t>A0503</t>
+  </si>
+  <si>
+    <t>A0504</t>
+  </si>
+  <si>
+    <t>A0505</t>
+  </si>
+  <si>
+    <t>A0600</t>
+  </si>
+  <si>
+    <t>A0610</t>
+  </si>
+  <si>
+    <t>A0611</t>
+  </si>
+  <si>
+    <t>A0612</t>
+  </si>
+  <si>
+    <t>A0620</t>
+  </si>
+  <si>
+    <t>A0630</t>
+  </si>
+  <si>
+    <t>A0631</t>
+  </si>
+  <si>
+    <t>A0632</t>
+  </si>
+  <si>
+    <t>A0633</t>
+  </si>
+  <si>
+    <t>A0700</t>
+  </si>
+  <si>
+    <t>A0701</t>
+  </si>
+  <si>
+    <t>A0702</t>
+  </si>
+  <si>
+    <t>A0800</t>
+  </si>
+  <si>
+    <t>A0801</t>
+  </si>
+  <si>
+    <t>A0802</t>
+  </si>
+  <si>
+    <t>A0803</t>
+  </si>
+  <si>
+    <t>A0900</t>
+  </si>
+  <si>
+    <t>A0901</t>
+  </si>
+  <si>
+    <t>A0902</t>
+  </si>
+  <si>
+    <t>A0903</t>
+  </si>
+  <si>
+    <t>A0904</t>
+  </si>
+  <si>
+    <t>A1000</t>
+  </si>
+  <si>
+    <t>A1010</t>
+  </si>
+  <si>
+    <t>A1011</t>
+  </si>
+  <si>
+    <t>A1012</t>
+  </si>
+  <si>
+    <t>A1013</t>
+  </si>
+  <si>
+    <t>A1020</t>
+  </si>
+  <si>
+    <t>A1021</t>
+  </si>
+  <si>
+    <t>A1022</t>
+  </si>
+  <si>
+    <t>A1030</t>
+  </si>
+  <si>
+    <t>A1031</t>
+  </si>
+  <si>
+    <t>A1032</t>
+  </si>
+  <si>
+    <t>A1033</t>
+  </si>
+  <si>
+    <t>A1034</t>
+  </si>
+  <si>
+    <t>A1035</t>
+  </si>
+  <si>
+    <t>A1100</t>
+  </si>
+  <si>
+    <t>A1101</t>
+  </si>
+  <si>
+    <t>A1102</t>
+  </si>
+  <si>
+    <t>A1103</t>
+  </si>
+  <si>
+    <t>A1104</t>
+  </si>
+  <si>
+    <t>A1200</t>
+  </si>
+  <si>
+    <t>A1210</t>
+  </si>
+  <si>
+    <t>A1220</t>
+  </si>
+  <si>
+    <t>A1300</t>
+  </si>
+  <si>
+    <t>A1310</t>
+  </si>
+  <si>
+    <t>A1320</t>
+  </si>
+  <si>
+    <t>A1330</t>
+  </si>
+  <si>
+    <t>A1340</t>
+  </si>
+  <si>
     <t>0000</t>
   </si>
   <si>
@@ -3915,408 +4317,6 @@
     <t>1340</t>
   </si>
   <si>
-    <t>A0000</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>A0200</t>
-  </si>
-  <si>
-    <t>A0300</t>
-  </si>
-  <si>
-    <t>A0110</t>
-  </si>
-  <si>
-    <t>A0120</t>
-  </si>
-  <si>
-    <t>A0130</t>
-  </si>
-  <si>
-    <t>A0131</t>
-  </si>
-  <si>
-    <t>A0132</t>
-  </si>
-  <si>
-    <t>A0133</t>
-  </si>
-  <si>
-    <t>A0134</t>
-  </si>
-  <si>
-    <t>A0140</t>
-  </si>
-  <si>
-    <t>A0150</t>
-  </si>
-  <si>
-    <t>A0151</t>
-  </si>
-  <si>
-    <t>A0152</t>
-  </si>
-  <si>
-    <t>A0153</t>
-  </si>
-  <si>
-    <t>A0160</t>
-  </si>
-  <si>
-    <t>A0161</t>
-  </si>
-  <si>
-    <t>A0162</t>
-  </si>
-  <si>
-    <t>A0163</t>
-  </si>
-  <si>
-    <t>A0164</t>
-  </si>
-  <si>
-    <t>A0165</t>
-  </si>
-  <si>
-    <t>A0170</t>
-  </si>
-  <si>
-    <t>A0180</t>
-  </si>
-  <si>
-    <t>A0181</t>
-  </si>
-  <si>
-    <t>A0182</t>
-  </si>
-  <si>
-    <t>A0183</t>
-  </si>
-  <si>
-    <t>A0184</t>
-  </si>
-  <si>
-    <t>A0185</t>
-  </si>
-  <si>
-    <t>A0186</t>
-  </si>
-  <si>
-    <t>A0187</t>
-  </si>
-  <si>
-    <t>A0188</t>
-  </si>
-  <si>
-    <t>A0189</t>
-  </si>
-  <si>
-    <t>A0210</t>
-  </si>
-  <si>
-    <t>A0220</t>
-  </si>
-  <si>
-    <t>A0221</t>
-  </si>
-  <si>
-    <t>A0222</t>
-  </si>
-  <si>
-    <t>A0223</t>
-  </si>
-  <si>
-    <t>A0224</t>
-  </si>
-  <si>
-    <t>A0225</t>
-  </si>
-  <si>
-    <t>A0226</t>
-  </si>
-  <si>
-    <t>A0230</t>
-  </si>
-  <si>
-    <t>A0231</t>
-  </si>
-  <si>
-    <t>A0232</t>
-  </si>
-  <si>
-    <t>A0233</t>
-  </si>
-  <si>
-    <t>A0234</t>
-  </si>
-  <si>
-    <t>A0235</t>
-  </si>
-  <si>
-    <t>A0236</t>
-  </si>
-  <si>
-    <t>A0237</t>
-  </si>
-  <si>
-    <t>A0238</t>
-  </si>
-  <si>
-    <t>A0240</t>
-  </si>
-  <si>
-    <t>A0250</t>
-  </si>
-  <si>
-    <t>A0251</t>
-  </si>
-  <si>
-    <t>A0252</t>
-  </si>
-  <si>
-    <t>A0253</t>
-  </si>
-  <si>
-    <t>A0254</t>
-  </si>
-  <si>
-    <t>A0255</t>
-  </si>
-  <si>
-    <t>A0256</t>
-  </si>
-  <si>
-    <t>A0257</t>
-  </si>
-  <si>
-    <t>A0258</t>
-  </si>
-  <si>
-    <t>A0301</t>
-  </si>
-  <si>
-    <t>A0302</t>
-  </si>
-  <si>
-    <t>A0303</t>
-  </si>
-  <si>
-    <t>A0304</t>
-  </si>
-  <si>
-    <t>A0305</t>
-  </si>
-  <si>
-    <t>A0400</t>
-  </si>
-  <si>
-    <t>A0410</t>
-  </si>
-  <si>
-    <t>A0420</t>
-  </si>
-  <si>
-    <t>A0430</t>
-  </si>
-  <si>
-    <t>A0431</t>
-  </si>
-  <si>
-    <t>A0432</t>
-  </si>
-  <si>
-    <t>A0433</t>
-  </si>
-  <si>
-    <t>A0434</t>
-  </si>
-  <si>
-    <t>A0440</t>
-  </si>
-  <si>
-    <t>A0441</t>
-  </si>
-  <si>
-    <t>A0442</t>
-  </si>
-  <si>
-    <t>A0450</t>
-  </si>
-  <si>
-    <t>A0451</t>
-  </si>
-  <si>
-    <t>A0452</t>
-  </si>
-  <si>
-    <t>A0453</t>
-  </si>
-  <si>
-    <t>A0500</t>
-  </si>
-  <si>
-    <t>A0501</t>
-  </si>
-  <si>
-    <t>A0502</t>
-  </si>
-  <si>
-    <t>A0503</t>
-  </si>
-  <si>
-    <t>A0504</t>
-  </si>
-  <si>
-    <t>A0505</t>
-  </si>
-  <si>
-    <t>A0600</t>
-  </si>
-  <si>
-    <t>A0610</t>
-  </si>
-  <si>
-    <t>A0611</t>
-  </si>
-  <si>
-    <t>A0612</t>
-  </si>
-  <si>
-    <t>A0620</t>
-  </si>
-  <si>
-    <t>A0630</t>
-  </si>
-  <si>
-    <t>A0631</t>
-  </si>
-  <si>
-    <t>A0632</t>
-  </si>
-  <si>
-    <t>A0633</t>
-  </si>
-  <si>
-    <t>A0700</t>
-  </si>
-  <si>
-    <t>A0701</t>
-  </si>
-  <si>
-    <t>A0702</t>
-  </si>
-  <si>
-    <t>A0800</t>
-  </si>
-  <si>
-    <t>A0801</t>
-  </si>
-  <si>
-    <t>A0802</t>
-  </si>
-  <si>
-    <t>A0803</t>
-  </si>
-  <si>
-    <t>A0900</t>
-  </si>
-  <si>
-    <t>A0901</t>
-  </si>
-  <si>
-    <t>A0902</t>
-  </si>
-  <si>
-    <t>A0903</t>
-  </si>
-  <si>
-    <t>A0904</t>
-  </si>
-  <si>
-    <t>A1000</t>
-  </si>
-  <si>
-    <t>A1010</t>
-  </si>
-  <si>
-    <t>A1011</t>
-  </si>
-  <si>
-    <t>A1012</t>
-  </si>
-  <si>
-    <t>A1013</t>
-  </si>
-  <si>
-    <t>A1020</t>
-  </si>
-  <si>
-    <t>A1021</t>
-  </si>
-  <si>
-    <t>A1022</t>
-  </si>
-  <si>
-    <t>A1030</t>
-  </si>
-  <si>
-    <t>A1031</t>
-  </si>
-  <si>
-    <t>A1032</t>
-  </si>
-  <si>
-    <t>A1033</t>
-  </si>
-  <si>
-    <t>A1034</t>
-  </si>
-  <si>
-    <t>A1035</t>
-  </si>
-  <si>
-    <t>A1100</t>
-  </si>
-  <si>
-    <t>A1101</t>
-  </si>
-  <si>
-    <t>A1102</t>
-  </si>
-  <si>
-    <t>A1103</t>
-  </si>
-  <si>
-    <t>A1104</t>
-  </si>
-  <si>
-    <t>A1200</t>
-  </si>
-  <si>
-    <t>A1210</t>
-  </si>
-  <si>
-    <t>A1220</t>
-  </si>
-  <si>
-    <t>A1300</t>
-  </si>
-  <si>
-    <t>A1310</t>
-  </si>
-  <si>
-    <t>A1320</t>
-  </si>
-  <si>
-    <t>A1330</t>
-  </si>
-  <si>
-    <t>A1340</t>
-  </si>
-  <si>
     <t>BLKS_0160_GWL_1M</t>
   </si>
   <si>
@@ -10428,25 +10428,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:07.257098</t>
+    <t>2025-04-17 10:01:18.948924</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>
@@ -10711,7 +10711,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="AI3:AJ19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="AI3:AJ18" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -13318,13 +13318,13 @@
         <v>171</v>
       </c>
       <c r="BE4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG4" t="s">
         <v>1163</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>1297</v>
       </c>
       <c r="BH4" t="s">
         <v>171</v>
@@ -13932,13 +13932,13 @@
         <v>171</v>
       </c>
       <c r="BE5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG5" t="s">
         <v>1164</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>1298</v>
       </c>
       <c r="BH5" t="s">
         <v>171</v>
@@ -14540,13 +14540,13 @@
         <v>171</v>
       </c>
       <c r="BE6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG6" t="s">
         <v>1165</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>1299</v>
       </c>
       <c r="BH6" t="s">
         <v>171</v>
@@ -15082,13 +15082,13 @@
         <v>171</v>
       </c>
       <c r="BE7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG7" t="s">
         <v>1166</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>1300</v>
       </c>
       <c r="BH7" t="s">
         <v>171</v>
@@ -15522,13 +15522,13 @@
         <v>171</v>
       </c>
       <c r="BE8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG8" t="s">
         <v>1167</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>1301</v>
       </c>
       <c r="BH8" t="s">
         <v>171</v>
@@ -15944,13 +15944,13 @@
         <v>171</v>
       </c>
       <c r="BE9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG9" t="s">
         <v>1168</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>1302</v>
       </c>
       <c r="BH9" t="s">
         <v>171</v>
@@ -16324,13 +16324,13 @@
         <v>171</v>
       </c>
       <c r="BE10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG10" t="s">
         <v>1169</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>1303</v>
       </c>
       <c r="BH10" t="s">
         <v>171</v>
@@ -16698,13 +16698,13 @@
         <v>171</v>
       </c>
       <c r="BE11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG11" t="s">
         <v>1170</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>1304</v>
       </c>
       <c r="BH11" t="s">
         <v>171</v>
@@ -17036,13 +17036,13 @@
         <v>171</v>
       </c>
       <c r="BE12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG12" t="s">
         <v>1171</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>1305</v>
       </c>
       <c r="BH12" t="s">
         <v>171</v>
@@ -17368,13 +17368,13 @@
         <v>171</v>
       </c>
       <c r="BE13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG13" t="s">
         <v>1172</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>1306</v>
       </c>
       <c r="BH13" t="s">
         <v>171</v>
@@ -17676,13 +17676,13 @@
         <v>171</v>
       </c>
       <c r="BE14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG14" t="s">
         <v>1173</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>1307</v>
       </c>
       <c r="BH14" t="s">
         <v>171</v>
@@ -17978,13 +17978,13 @@
         <v>171</v>
       </c>
       <c r="BE15" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG15" t="s">
         <v>1174</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>1308</v>
       </c>
       <c r="BH15" t="s">
         <v>171</v>
@@ -18262,13 +18262,13 @@
         <v>171</v>
       </c>
       <c r="BE16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG16" t="s">
         <v>1175</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>1309</v>
       </c>
       <c r="BH16" t="s">
         <v>171</v>
@@ -18504,7 +18504,7 @@
         <v>171</v>
       </c>
       <c r="AI17" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AJ17" t="s">
         <v>171</v>
@@ -18540,13 +18540,13 @@
         <v>171</v>
       </c>
       <c r="BE17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG17" t="s">
         <v>1176</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>1310</v>
       </c>
       <c r="BH17" t="s">
         <v>171</v>
@@ -18770,7 +18770,7 @@
         <v>171</v>
       </c>
       <c r="AI18" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AJ18" t="s">
         <v>171</v>
@@ -18806,13 +18806,13 @@
         <v>171</v>
       </c>
       <c r="BE18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG18" t="s">
         <v>1177</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>1311</v>
       </c>
       <c r="BH18" t="s">
         <v>171</v>
@@ -19023,12 +19023,6 @@
       <c r="V19" t="s">
         <v>171</v>
       </c>
-      <c r="AI19" t="s">
-        <v>952</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>171</v>
-      </c>
       <c r="AO19" t="s">
         <v>984</v>
       </c>
@@ -19054,13 +19048,13 @@
         <v>171</v>
       </c>
       <c r="BE19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG19" t="s">
         <v>1178</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>1312</v>
       </c>
       <c r="BH19" t="s">
         <v>171</v>
@@ -19290,13 +19284,13 @@
         <v>171</v>
       </c>
       <c r="BE20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG20" t="s">
         <v>1179</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>1313</v>
       </c>
       <c r="BH20" t="s">
         <v>171</v>
@@ -19508,13 +19502,13 @@
         <v>171</v>
       </c>
       <c r="BE21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG21" t="s">
         <v>1180</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>1314</v>
       </c>
       <c r="BH21" t="s">
         <v>171</v>
@@ -19720,13 +19714,13 @@
         <v>171</v>
       </c>
       <c r="BE22" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG22" t="s">
         <v>1181</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>1315</v>
       </c>
       <c r="BH22" t="s">
         <v>171</v>
@@ -19932,13 +19926,13 @@
         <v>171</v>
       </c>
       <c r="BE23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG23" t="s">
         <v>1182</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>1316</v>
       </c>
       <c r="BH23" t="s">
         <v>171</v>
@@ -20144,13 +20138,13 @@
         <v>171</v>
       </c>
       <c r="BE24" t="s">
+        <v>1317</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG24" t="s">
         <v>1183</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>1317</v>
       </c>
       <c r="BH24" t="s">
         <v>171</v>
@@ -20344,13 +20338,13 @@
         <v>171</v>
       </c>
       <c r="BE25" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG25" t="s">
         <v>1184</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>1318</v>
       </c>
       <c r="BH25" t="s">
         <v>171</v>
@@ -20544,13 +20538,13 @@
         <v>171</v>
       </c>
       <c r="BE26" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG26" t="s">
         <v>1185</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>1319</v>
       </c>
       <c r="BH26" t="s">
         <v>171</v>
@@ -20738,13 +20732,13 @@
         <v>171</v>
       </c>
       <c r="BE27" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG27" t="s">
         <v>1186</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>1320</v>
       </c>
       <c r="BH27" t="s">
         <v>171</v>
@@ -20926,13 +20920,13 @@
         <v>171</v>
       </c>
       <c r="BE28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG28" t="s">
         <v>1187</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>1321</v>
       </c>
       <c r="BH28" t="s">
         <v>171</v>
@@ -21108,13 +21102,13 @@
         <v>171</v>
       </c>
       <c r="BE29" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG29" t="s">
         <v>1188</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>1322</v>
       </c>
       <c r="BH29" t="s">
         <v>171</v>
@@ -21290,13 +21284,13 @@
         <v>171</v>
       </c>
       <c r="BE30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG30" t="s">
         <v>1189</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>1323</v>
       </c>
       <c r="BH30" t="s">
         <v>171</v>
@@ -21466,13 +21460,13 @@
         <v>171</v>
       </c>
       <c r="BE31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG31" t="s">
         <v>1190</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>1324</v>
       </c>
       <c r="BH31" t="s">
         <v>171</v>
@@ -21642,13 +21636,13 @@
         <v>171</v>
       </c>
       <c r="BE32" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG32" t="s">
         <v>1191</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>1325</v>
       </c>
       <c r="BH32" t="s">
         <v>171</v>
@@ -21818,13 +21812,13 @@
         <v>171</v>
       </c>
       <c r="BE33" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG33" t="s">
         <v>1192</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>1326</v>
       </c>
       <c r="BH33" t="s">
         <v>171</v>
@@ -21994,13 +21988,13 @@
         <v>171</v>
       </c>
       <c r="BE34" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG34" t="s">
         <v>1193</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>1327</v>
       </c>
       <c r="BH34" t="s">
         <v>171</v>
@@ -22170,13 +22164,13 @@
         <v>171</v>
       </c>
       <c r="BE35" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG35" t="s">
         <v>1194</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>1328</v>
       </c>
       <c r="BH35" t="s">
         <v>171</v>
@@ -22346,13 +22340,13 @@
         <v>171</v>
       </c>
       <c r="BE36" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG36" t="s">
         <v>1195</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>1329</v>
       </c>
       <c r="BH36" t="s">
         <v>171</v>
@@ -22522,13 +22516,13 @@
         <v>171</v>
       </c>
       <c r="BE37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG37" t="s">
         <v>1196</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>1330</v>
       </c>
       <c r="BH37" t="s">
         <v>171</v>
@@ -22698,13 +22692,13 @@
         <v>171</v>
       </c>
       <c r="BE38" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG38" t="s">
         <v>1197</v>
-      </c>
-      <c r="BF38" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG38" t="s">
-        <v>1331</v>
       </c>
       <c r="BH38" t="s">
         <v>171</v>
@@ -22874,13 +22868,13 @@
         <v>171</v>
       </c>
       <c r="BE39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG39" t="s">
         <v>1198</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG39" t="s">
-        <v>1332</v>
       </c>
       <c r="BH39" t="s">
         <v>171</v>
@@ -23050,13 +23044,13 @@
         <v>171</v>
       </c>
       <c r="BE40" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG40" t="s">
         <v>1199</v>
-      </c>
-      <c r="BF40" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG40" t="s">
-        <v>1333</v>
       </c>
       <c r="BH40" t="s">
         <v>171</v>
@@ -23226,13 +23220,13 @@
         <v>171</v>
       </c>
       <c r="BE41" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG41" t="s">
         <v>1200</v>
-      </c>
-      <c r="BF41" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG41" t="s">
-        <v>1334</v>
       </c>
       <c r="BH41" t="s">
         <v>171</v>
@@ -23396,13 +23390,13 @@
         <v>171</v>
       </c>
       <c r="BE42" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG42" t="s">
         <v>1201</v>
-      </c>
-      <c r="BF42" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG42" t="s">
-        <v>1335</v>
       </c>
       <c r="BH42" t="s">
         <v>171</v>
@@ -23566,13 +23560,13 @@
         <v>171</v>
       </c>
       <c r="BE43" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG43" t="s">
         <v>1202</v>
-      </c>
-      <c r="BF43" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG43" t="s">
-        <v>1336</v>
       </c>
       <c r="BH43" t="s">
         <v>171</v>
@@ -23736,13 +23730,13 @@
         <v>171</v>
       </c>
       <c r="BE44" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG44" t="s">
         <v>1203</v>
-      </c>
-      <c r="BF44" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG44" t="s">
-        <v>1337</v>
       </c>
       <c r="BH44" t="s">
         <v>171</v>
@@ -23906,13 +23900,13 @@
         <v>171</v>
       </c>
       <c r="BE45" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG45" t="s">
         <v>1204</v>
-      </c>
-      <c r="BF45" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG45" t="s">
-        <v>1338</v>
       </c>
       <c r="BH45" t="s">
         <v>171</v>
@@ -24076,13 +24070,13 @@
         <v>171</v>
       </c>
       <c r="BE46" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG46" t="s">
         <v>1205</v>
-      </c>
-      <c r="BF46" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG46" t="s">
-        <v>1339</v>
       </c>
       <c r="BH46" t="s">
         <v>171</v>
@@ -24246,13 +24240,13 @@
         <v>171</v>
       </c>
       <c r="BE47" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG47" t="s">
         <v>1206</v>
-      </c>
-      <c r="BF47" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG47" t="s">
-        <v>1340</v>
       </c>
       <c r="BH47" t="s">
         <v>171</v>
@@ -24416,13 +24410,13 @@
         <v>171</v>
       </c>
       <c r="BE48" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG48" t="s">
         <v>1207</v>
-      </c>
-      <c r="BF48" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG48" t="s">
-        <v>1341</v>
       </c>
       <c r="BH48" t="s">
         <v>171</v>
@@ -24586,13 +24580,13 @@
         <v>171</v>
       </c>
       <c r="BE49" t="s">
+        <v>1342</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG49" t="s">
         <v>1208</v>
-      </c>
-      <c r="BF49" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG49" t="s">
-        <v>1342</v>
       </c>
       <c r="BH49" t="s">
         <v>171</v>
@@ -24756,13 +24750,13 @@
         <v>171</v>
       </c>
       <c r="BE50" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG50" t="s">
         <v>1209</v>
-      </c>
-      <c r="BF50" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG50" t="s">
-        <v>1343</v>
       </c>
       <c r="BH50" t="s">
         <v>171</v>
@@ -24926,13 +24920,13 @@
         <v>171</v>
       </c>
       <c r="BE51" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG51" t="s">
         <v>1210</v>
-      </c>
-      <c r="BF51" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG51" t="s">
-        <v>1344</v>
       </c>
       <c r="BH51" t="s">
         <v>171</v>
@@ -25090,13 +25084,13 @@
         <v>171</v>
       </c>
       <c r="BE52" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG52" t="s">
         <v>1211</v>
-      </c>
-      <c r="BF52" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG52" t="s">
-        <v>1345</v>
       </c>
       <c r="BH52" t="s">
         <v>171</v>
@@ -25254,13 +25248,13 @@
         <v>171</v>
       </c>
       <c r="BE53" t="s">
+        <v>1346</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG53" t="s">
         <v>1212</v>
-      </c>
-      <c r="BF53" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG53" t="s">
-        <v>1346</v>
       </c>
       <c r="BH53" t="s">
         <v>171</v>
@@ -25418,13 +25412,13 @@
         <v>171</v>
       </c>
       <c r="BE54" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG54" t="s">
         <v>1213</v>
-      </c>
-      <c r="BF54" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG54" t="s">
-        <v>1347</v>
       </c>
       <c r="BH54" t="s">
         <v>171</v>
@@ -25582,13 +25576,13 @@
         <v>171</v>
       </c>
       <c r="BE55" t="s">
+        <v>1348</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG55" t="s">
         <v>1214</v>
-      </c>
-      <c r="BF55" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG55" t="s">
-        <v>1348</v>
       </c>
       <c r="BH55" t="s">
         <v>171</v>
@@ -25746,13 +25740,13 @@
         <v>171</v>
       </c>
       <c r="BE56" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG56" t="s">
         <v>1215</v>
-      </c>
-      <c r="BF56" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG56" t="s">
-        <v>1349</v>
       </c>
       <c r="BH56" t="s">
         <v>171</v>
@@ -25910,13 +25904,13 @@
         <v>171</v>
       </c>
       <c r="BE57" t="s">
+        <v>1350</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG57" t="s">
         <v>1216</v>
-      </c>
-      <c r="BF57" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG57" t="s">
-        <v>1350</v>
       </c>
       <c r="BH57" t="s">
         <v>171</v>
@@ -26074,13 +26068,13 @@
         <v>171</v>
       </c>
       <c r="BE58" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG58" t="s">
         <v>1217</v>
-      </c>
-      <c r="BF58" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG58" t="s">
-        <v>1351</v>
       </c>
       <c r="BH58" t="s">
         <v>171</v>
@@ -26238,13 +26232,13 @@
         <v>171</v>
       </c>
       <c r="BE59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG59" t="s">
         <v>1218</v>
-      </c>
-      <c r="BF59" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG59" t="s">
-        <v>1352</v>
       </c>
       <c r="BH59" t="s">
         <v>171</v>
@@ -26402,13 +26396,13 @@
         <v>171</v>
       </c>
       <c r="BE60" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG60" t="s">
         <v>1219</v>
-      </c>
-      <c r="BF60" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG60" t="s">
-        <v>1353</v>
       </c>
       <c r="BH60" t="s">
         <v>171</v>
@@ -26566,13 +26560,13 @@
         <v>171</v>
       </c>
       <c r="BE61" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG61" t="s">
         <v>1220</v>
-      </c>
-      <c r="BF61" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG61" t="s">
-        <v>1354</v>
       </c>
       <c r="BH61" t="s">
         <v>171</v>
@@ -26730,13 +26724,13 @@
         <v>171</v>
       </c>
       <c r="BE62" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG62" t="s">
         <v>1221</v>
-      </c>
-      <c r="BF62" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG62" t="s">
-        <v>1355</v>
       </c>
       <c r="BH62" t="s">
         <v>171</v>
@@ -26894,13 +26888,13 @@
         <v>171</v>
       </c>
       <c r="BE63" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG63" t="s">
         <v>1222</v>
-      </c>
-      <c r="BF63" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG63" t="s">
-        <v>1356</v>
       </c>
       <c r="BH63" t="s">
         <v>171</v>
@@ -27058,13 +27052,13 @@
         <v>171</v>
       </c>
       <c r="BE64" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG64" t="s">
         <v>1223</v>
-      </c>
-      <c r="BF64" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG64" t="s">
-        <v>1357</v>
       </c>
       <c r="BH64" t="s">
         <v>171</v>
@@ -27222,13 +27216,13 @@
         <v>171</v>
       </c>
       <c r="BE65" t="s">
+        <v>1358</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG65" t="s">
         <v>1224</v>
-      </c>
-      <c r="BF65" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG65" t="s">
-        <v>1358</v>
       </c>
       <c r="BH65" t="s">
         <v>171</v>
@@ -27386,13 +27380,13 @@
         <v>171</v>
       </c>
       <c r="BE66" t="s">
+        <v>1359</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG66" t="s">
         <v>1225</v>
-      </c>
-      <c r="BF66" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG66" t="s">
-        <v>1359</v>
       </c>
       <c r="BH66" t="s">
         <v>171</v>
@@ -27550,13 +27544,13 @@
         <v>171</v>
       </c>
       <c r="BE67" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BF67" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG67" t="s">
         <v>1226</v>
-      </c>
-      <c r="BF67" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG67" t="s">
-        <v>1360</v>
       </c>
       <c r="BH67" t="s">
         <v>171</v>
@@ -27714,13 +27708,13 @@
         <v>171</v>
       </c>
       <c r="BE68" t="s">
+        <v>1361</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG68" t="s">
         <v>1227</v>
-      </c>
-      <c r="BF68" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG68" t="s">
-        <v>1361</v>
       </c>
       <c r="BH68" t="s">
         <v>171</v>
@@ -27878,13 +27872,13 @@
         <v>171</v>
       </c>
       <c r="BE69" t="s">
+        <v>1362</v>
+      </c>
+      <c r="BF69" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG69" t="s">
         <v>1228</v>
-      </c>
-      <c r="BF69" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG69" t="s">
-        <v>1362</v>
       </c>
       <c r="BH69" t="s">
         <v>171</v>
@@ -27994,13 +27988,13 @@
         <v>171</v>
       </c>
       <c r="BE70" t="s">
+        <v>1363</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG70" t="s">
         <v>1229</v>
-      </c>
-      <c r="BF70" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG70" t="s">
-        <v>1363</v>
       </c>
       <c r="BH70" t="s">
         <v>171</v>
@@ -28110,13 +28104,13 @@
         <v>171</v>
       </c>
       <c r="BE71" t="s">
+        <v>1364</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG71" t="s">
         <v>1230</v>
-      </c>
-      <c r="BF71" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG71" t="s">
-        <v>1364</v>
       </c>
       <c r="BH71" t="s">
         <v>171</v>
@@ -28226,13 +28220,13 @@
         <v>171</v>
       </c>
       <c r="BE72" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG72" t="s">
         <v>1231</v>
-      </c>
-      <c r="BF72" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG72" t="s">
-        <v>1365</v>
       </c>
       <c r="BH72" t="s">
         <v>171</v>
@@ -28342,13 +28336,13 @@
         <v>171</v>
       </c>
       <c r="BE73" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG73" t="s">
         <v>1232</v>
-      </c>
-      <c r="BF73" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG73" t="s">
-        <v>1366</v>
       </c>
       <c r="BH73" t="s">
         <v>171</v>
@@ -28458,13 +28452,13 @@
         <v>171</v>
       </c>
       <c r="BE74" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BF74" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG74" t="s">
         <v>1233</v>
-      </c>
-      <c r="BF74" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG74" t="s">
-        <v>1367</v>
       </c>
       <c r="BH74" t="s">
         <v>171</v>
@@ -28574,13 +28568,13 @@
         <v>171</v>
       </c>
       <c r="BE75" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG75" t="s">
         <v>1234</v>
-      </c>
-      <c r="BF75" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG75" t="s">
-        <v>1368</v>
       </c>
       <c r="BH75" t="s">
         <v>171</v>
@@ -28690,13 +28684,13 @@
         <v>171</v>
       </c>
       <c r="BE76" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG76" t="s">
         <v>1235</v>
-      </c>
-      <c r="BF76" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG76" t="s">
-        <v>1369</v>
       </c>
       <c r="BH76" t="s">
         <v>171</v>
@@ -28806,13 +28800,13 @@
         <v>171</v>
       </c>
       <c r="BE77" t="s">
+        <v>1370</v>
+      </c>
+      <c r="BF77" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG77" t="s">
         <v>1236</v>
-      </c>
-      <c r="BF77" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG77" t="s">
-        <v>1370</v>
       </c>
       <c r="BH77" t="s">
         <v>171</v>
@@ -28922,13 +28916,13 @@
         <v>171</v>
       </c>
       <c r="BE78" t="s">
+        <v>1371</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG78" t="s">
         <v>1237</v>
-      </c>
-      <c r="BF78" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG78" t="s">
-        <v>1371</v>
       </c>
       <c r="BH78" t="s">
         <v>171</v>
@@ -29038,13 +29032,13 @@
         <v>171</v>
       </c>
       <c r="BE79" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BF79" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG79" t="s">
         <v>1238</v>
-      </c>
-      <c r="BF79" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG79" t="s">
-        <v>1372</v>
       </c>
       <c r="BH79" t="s">
         <v>171</v>
@@ -29154,13 +29148,13 @@
         <v>171</v>
       </c>
       <c r="BE80" t="s">
+        <v>1373</v>
+      </c>
+      <c r="BF80" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG80" t="s">
         <v>1239</v>
-      </c>
-      <c r="BF80" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG80" t="s">
-        <v>1373</v>
       </c>
       <c r="BH80" t="s">
         <v>171</v>
@@ -29270,13 +29264,13 @@
         <v>171</v>
       </c>
       <c r="BE81" t="s">
+        <v>1374</v>
+      </c>
+      <c r="BF81" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG81" t="s">
         <v>1240</v>
-      </c>
-      <c r="BF81" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG81" t="s">
-        <v>1374</v>
       </c>
       <c r="BH81" t="s">
         <v>171</v>
@@ -29386,13 +29380,13 @@
         <v>171</v>
       </c>
       <c r="BE82" t="s">
+        <v>1375</v>
+      </c>
+      <c r="BF82" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG82" t="s">
         <v>1241</v>
-      </c>
-      <c r="BF82" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG82" t="s">
-        <v>1375</v>
       </c>
       <c r="BH82" t="s">
         <v>171</v>
@@ -29502,13 +29496,13 @@
         <v>171</v>
       </c>
       <c r="BE83" t="s">
+        <v>1376</v>
+      </c>
+      <c r="BF83" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG83" t="s">
         <v>1242</v>
-      </c>
-      <c r="BF83" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG83" t="s">
-        <v>1376</v>
       </c>
       <c r="BH83" t="s">
         <v>171</v>
@@ -29618,13 +29612,13 @@
         <v>171</v>
       </c>
       <c r="BE84" t="s">
+        <v>1377</v>
+      </c>
+      <c r="BF84" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG84" t="s">
         <v>1243</v>
-      </c>
-      <c r="BF84" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG84" t="s">
-        <v>1377</v>
       </c>
       <c r="BH84" t="s">
         <v>171</v>
@@ -29734,13 +29728,13 @@
         <v>171</v>
       </c>
       <c r="BE85" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BF85" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG85" t="s">
         <v>1244</v>
-      </c>
-      <c r="BF85" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG85" t="s">
-        <v>1378</v>
       </c>
       <c r="BH85" t="s">
         <v>171</v>
@@ -29850,13 +29844,13 @@
         <v>171</v>
       </c>
       <c r="BE86" t="s">
+        <v>1379</v>
+      </c>
+      <c r="BF86" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG86" t="s">
         <v>1245</v>
-      </c>
-      <c r="BF86" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG86" t="s">
-        <v>1379</v>
       </c>
       <c r="BH86" t="s">
         <v>171</v>
@@ -29960,13 +29954,13 @@
         <v>171</v>
       </c>
       <c r="BE87" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BF87" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG87" t="s">
         <v>1246</v>
-      </c>
-      <c r="BF87" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG87" t="s">
-        <v>1380</v>
       </c>
       <c r="BH87" t="s">
         <v>171</v>
@@ -30028,13 +30022,13 @@
         <v>171</v>
       </c>
       <c r="BE88" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BF88" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG88" t="s">
         <v>1247</v>
-      </c>
-      <c r="BF88" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG88" t="s">
-        <v>1381</v>
       </c>
       <c r="BH88" t="s">
         <v>171</v>
@@ -30096,13 +30090,13 @@
         <v>171</v>
       </c>
       <c r="BE89" t="s">
+        <v>1382</v>
+      </c>
+      <c r="BF89" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG89" t="s">
         <v>1248</v>
-      </c>
-      <c r="BF89" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG89" t="s">
-        <v>1382</v>
       </c>
       <c r="BH89" t="s">
         <v>171</v>
@@ -30164,13 +30158,13 @@
         <v>171</v>
       </c>
       <c r="BE90" t="s">
+        <v>1383</v>
+      </c>
+      <c r="BF90" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG90" t="s">
         <v>1249</v>
-      </c>
-      <c r="BF90" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG90" t="s">
-        <v>1383</v>
       </c>
       <c r="BH90" t="s">
         <v>171</v>
@@ -30232,13 +30226,13 @@
         <v>171</v>
       </c>
       <c r="BE91" t="s">
+        <v>1384</v>
+      </c>
+      <c r="BF91" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG91" t="s">
         <v>1250</v>
-      </c>
-      <c r="BF91" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG91" t="s">
-        <v>1384</v>
       </c>
       <c r="BH91" t="s">
         <v>171</v>
@@ -30300,13 +30294,13 @@
         <v>171</v>
       </c>
       <c r="BE92" t="s">
+        <v>1385</v>
+      </c>
+      <c r="BF92" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG92" t="s">
         <v>1251</v>
-      </c>
-      <c r="BF92" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG92" t="s">
-        <v>1385</v>
       </c>
       <c r="BH92" t="s">
         <v>171</v>
@@ -30368,13 +30362,13 @@
         <v>171</v>
       </c>
       <c r="BE93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BF93" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG93" t="s">
         <v>1252</v>
-      </c>
-      <c r="BF93" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG93" t="s">
-        <v>1386</v>
       </c>
       <c r="BH93" t="s">
         <v>171</v>
@@ -30436,13 +30430,13 @@
         <v>171</v>
       </c>
       <c r="BE94" t="s">
+        <v>1387</v>
+      </c>
+      <c r="BF94" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG94" t="s">
         <v>1253</v>
-      </c>
-      <c r="BF94" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG94" t="s">
-        <v>1387</v>
       </c>
       <c r="BH94" t="s">
         <v>171</v>
@@ -30504,13 +30498,13 @@
         <v>171</v>
       </c>
       <c r="BE95" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BF95" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG95" t="s">
         <v>1254</v>
-      </c>
-      <c r="BF95" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG95" t="s">
-        <v>1388</v>
       </c>
       <c r="BH95" t="s">
         <v>171</v>
@@ -30572,13 +30566,13 @@
         <v>171</v>
       </c>
       <c r="BE96" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BF96" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG96" t="s">
         <v>1255</v>
-      </c>
-      <c r="BF96" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG96" t="s">
-        <v>1389</v>
       </c>
       <c r="BH96" t="s">
         <v>171</v>
@@ -30640,13 +30634,13 @@
         <v>171</v>
       </c>
       <c r="BE97" t="s">
+        <v>1390</v>
+      </c>
+      <c r="BF97" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG97" t="s">
         <v>1256</v>
-      </c>
-      <c r="BF97" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG97" t="s">
-        <v>1390</v>
       </c>
       <c r="BH97" t="s">
         <v>171</v>
@@ -30708,13 +30702,13 @@
         <v>171</v>
       </c>
       <c r="BE98" t="s">
+        <v>1391</v>
+      </c>
+      <c r="BF98" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG98" t="s">
         <v>1257</v>
-      </c>
-      <c r="BF98" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG98" t="s">
-        <v>1391</v>
       </c>
       <c r="BH98" t="s">
         <v>171</v>
@@ -30776,13 +30770,13 @@
         <v>171</v>
       </c>
       <c r="BE99" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BF99" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG99" t="s">
         <v>1258</v>
-      </c>
-      <c r="BF99" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG99" t="s">
-        <v>1392</v>
       </c>
       <c r="BH99" t="s">
         <v>171</v>
@@ -30844,13 +30838,13 @@
         <v>171</v>
       </c>
       <c r="BE100" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BF100" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG100" t="s">
         <v>1259</v>
-      </c>
-      <c r="BF100" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG100" t="s">
-        <v>1393</v>
       </c>
       <c r="BH100" t="s">
         <v>171</v>
@@ -30912,13 +30906,13 @@
         <v>171</v>
       </c>
       <c r="BE101" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BF101" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG101" t="s">
         <v>1260</v>
-      </c>
-      <c r="BF101" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG101" t="s">
-        <v>1394</v>
       </c>
       <c r="BH101" t="s">
         <v>171</v>
@@ -30980,13 +30974,13 @@
         <v>171</v>
       </c>
       <c r="BE102" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BF102" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG102" t="s">
         <v>1261</v>
-      </c>
-      <c r="BF102" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG102" t="s">
-        <v>1395</v>
       </c>
       <c r="BH102" t="s">
         <v>171</v>
@@ -31048,13 +31042,13 @@
         <v>171</v>
       </c>
       <c r="BE103" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BF103" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG103" t="s">
         <v>1262</v>
-      </c>
-      <c r="BF103" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG103" t="s">
-        <v>1396</v>
       </c>
       <c r="BH103" t="s">
         <v>171</v>
@@ -31116,13 +31110,13 @@
         <v>171</v>
       </c>
       <c r="BE104" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BF104" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG104" t="s">
         <v>1263</v>
-      </c>
-      <c r="BF104" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG104" t="s">
-        <v>1397</v>
       </c>
       <c r="BH104" t="s">
         <v>171</v>
@@ -31184,13 +31178,13 @@
         <v>171</v>
       </c>
       <c r="BE105" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BF105" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG105" t="s">
         <v>1264</v>
-      </c>
-      <c r="BF105" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG105" t="s">
-        <v>1398</v>
       </c>
       <c r="BH105" t="s">
         <v>171</v>
@@ -31252,13 +31246,13 @@
         <v>171</v>
       </c>
       <c r="BE106" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BF106" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG106" t="s">
         <v>1265</v>
-      </c>
-      <c r="BF106" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG106" t="s">
-        <v>1399</v>
       </c>
       <c r="BH106" t="s">
         <v>171</v>
@@ -31320,13 +31314,13 @@
         <v>171</v>
       </c>
       <c r="BE107" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BF107" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG107" t="s">
         <v>1266</v>
-      </c>
-      <c r="BF107" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG107" t="s">
-        <v>1400</v>
       </c>
       <c r="BH107" t="s">
         <v>171</v>
@@ -31388,13 +31382,13 @@
         <v>171</v>
       </c>
       <c r="BE108" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BF108" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG108" t="s">
         <v>1267</v>
-      </c>
-      <c r="BF108" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG108" t="s">
-        <v>1401</v>
       </c>
       <c r="BH108" t="s">
         <v>171</v>
@@ -31456,13 +31450,13 @@
         <v>171</v>
       </c>
       <c r="BE109" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BF109" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG109" t="s">
         <v>1268</v>
-      </c>
-      <c r="BF109" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG109" t="s">
-        <v>1402</v>
       </c>
       <c r="BH109" t="s">
         <v>171</v>
@@ -31524,13 +31518,13 @@
         <v>171</v>
       </c>
       <c r="BE110" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BF110" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG110" t="s">
         <v>1269</v>
-      </c>
-      <c r="BF110" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG110" t="s">
-        <v>1403</v>
       </c>
       <c r="BH110" t="s">
         <v>171</v>
@@ -31592,13 +31586,13 @@
         <v>171</v>
       </c>
       <c r="BE111" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BF111" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG111" t="s">
         <v>1270</v>
-      </c>
-      <c r="BF111" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG111" t="s">
-        <v>1404</v>
       </c>
       <c r="BH111" t="s">
         <v>171</v>
@@ -31660,13 +31654,13 @@
         <v>171</v>
       </c>
       <c r="BE112" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BF112" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG112" t="s">
         <v>1271</v>
-      </c>
-      <c r="BF112" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG112" t="s">
-        <v>1405</v>
       </c>
       <c r="BH112" t="s">
         <v>171</v>
@@ -31728,13 +31722,13 @@
         <v>171</v>
       </c>
       <c r="BE113" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BF113" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG113" t="s">
         <v>1272</v>
-      </c>
-      <c r="BF113" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG113" t="s">
-        <v>1406</v>
       </c>
       <c r="BH113" t="s">
         <v>171</v>
@@ -31796,13 +31790,13 @@
         <v>171</v>
       </c>
       <c r="BE114" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BF114" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG114" t="s">
         <v>1273</v>
-      </c>
-      <c r="BF114" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG114" t="s">
-        <v>1407</v>
       </c>
       <c r="BH114" t="s">
         <v>171</v>
@@ -31864,13 +31858,13 @@
         <v>171</v>
       </c>
       <c r="BE115" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BF115" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG115" t="s">
         <v>1274</v>
-      </c>
-      <c r="BF115" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG115" t="s">
-        <v>1408</v>
       </c>
       <c r="BH115" t="s">
         <v>171</v>
@@ -31932,13 +31926,13 @@
         <v>171</v>
       </c>
       <c r="BE116" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BF116" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG116" t="s">
         <v>1275</v>
-      </c>
-      <c r="BF116" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG116" t="s">
-        <v>1409</v>
       </c>
       <c r="BH116" t="s">
         <v>171</v>
@@ -32000,13 +31994,13 @@
         <v>171</v>
       </c>
       <c r="BE117" t="s">
+        <v>1410</v>
+      </c>
+      <c r="BF117" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG117" t="s">
         <v>1276</v>
-      </c>
-      <c r="BF117" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG117" t="s">
-        <v>1410</v>
       </c>
       <c r="BH117" t="s">
         <v>171</v>
@@ -32068,13 +32062,13 @@
         <v>171</v>
       </c>
       <c r="BE118" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BF118" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG118" t="s">
         <v>1277</v>
-      </c>
-      <c r="BF118" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG118" t="s">
-        <v>1411</v>
       </c>
       <c r="BH118" t="s">
         <v>171</v>
@@ -32136,13 +32130,13 @@
         <v>171</v>
       </c>
       <c r="BE119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BF119" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG119" t="s">
         <v>1278</v>
-      </c>
-      <c r="BF119" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG119" t="s">
-        <v>1412</v>
       </c>
       <c r="BH119" t="s">
         <v>171</v>
@@ -32204,13 +32198,13 @@
         <v>171</v>
       </c>
       <c r="BE120" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BF120" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG120" t="s">
         <v>1279</v>
-      </c>
-      <c r="BF120" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG120" t="s">
-        <v>1413</v>
       </c>
       <c r="BH120" t="s">
         <v>171</v>
@@ -32272,13 +32266,13 @@
         <v>171</v>
       </c>
       <c r="BE121" t="s">
+        <v>1414</v>
+      </c>
+      <c r="BF121" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG121" t="s">
         <v>1280</v>
-      </c>
-      <c r="BF121" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG121" t="s">
-        <v>1414</v>
       </c>
       <c r="BH121" t="s">
         <v>171</v>
@@ -32340,13 +32334,13 @@
         <v>171</v>
       </c>
       <c r="BE122" t="s">
+        <v>1415</v>
+      </c>
+      <c r="BF122" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG122" t="s">
         <v>1281</v>
-      </c>
-      <c r="BF122" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG122" t="s">
-        <v>1415</v>
       </c>
       <c r="BH122" t="s">
         <v>171</v>
@@ -32408,13 +32402,13 @@
         <v>171</v>
       </c>
       <c r="BE123" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BF123" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG123" t="s">
         <v>1282</v>
-      </c>
-      <c r="BF123" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG123" t="s">
-        <v>1416</v>
       </c>
       <c r="BH123" t="s">
         <v>171</v>
@@ -32476,13 +32470,13 @@
         <v>171</v>
       </c>
       <c r="BE124" t="s">
+        <v>1417</v>
+      </c>
+      <c r="BF124" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG124" t="s">
         <v>1283</v>
-      </c>
-      <c r="BF124" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG124" t="s">
-        <v>1417</v>
       </c>
       <c r="BH124" t="s">
         <v>171</v>
@@ -32544,13 +32538,13 @@
         <v>171</v>
       </c>
       <c r="BE125" t="s">
+        <v>1418</v>
+      </c>
+      <c r="BF125" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG125" t="s">
         <v>1284</v>
-      </c>
-      <c r="BF125" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG125" t="s">
-        <v>1418</v>
       </c>
       <c r="BH125" t="s">
         <v>171</v>
@@ -32612,13 +32606,13 @@
         <v>171</v>
       </c>
       <c r="BE126" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BF126" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG126" t="s">
         <v>1285</v>
-      </c>
-      <c r="BF126" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG126" t="s">
-        <v>1419</v>
       </c>
       <c r="BH126" t="s">
         <v>171</v>
@@ -32680,13 +32674,13 @@
         <v>171</v>
       </c>
       <c r="BE127" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BF127" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG127" t="s">
         <v>1286</v>
-      </c>
-      <c r="BF127" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG127" t="s">
-        <v>1420</v>
       </c>
       <c r="BH127" t="s">
         <v>171</v>
@@ -32748,13 +32742,13 @@
         <v>171</v>
       </c>
       <c r="BE128" t="s">
+        <v>1421</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG128" t="s">
         <v>1287</v>
-      </c>
-      <c r="BF128" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG128" t="s">
-        <v>1421</v>
       </c>
       <c r="BH128" t="s">
         <v>171</v>
@@ -32816,13 +32810,13 @@
         <v>171</v>
       </c>
       <c r="BE129" t="s">
+        <v>1422</v>
+      </c>
+      <c r="BF129" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG129" t="s">
         <v>1288</v>
-      </c>
-      <c r="BF129" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG129" t="s">
-        <v>1422</v>
       </c>
       <c r="BH129" t="s">
         <v>171</v>
@@ -32884,13 +32878,13 @@
         <v>171</v>
       </c>
       <c r="BE130" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BF130" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG130" t="s">
         <v>1289</v>
-      </c>
-      <c r="BF130" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG130" t="s">
-        <v>1423</v>
       </c>
       <c r="BH130" t="s">
         <v>171</v>
@@ -32952,13 +32946,13 @@
         <v>171</v>
       </c>
       <c r="BE131" t="s">
+        <v>1424</v>
+      </c>
+      <c r="BF131" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG131" t="s">
         <v>1290</v>
-      </c>
-      <c r="BF131" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG131" t="s">
-        <v>1424</v>
       </c>
       <c r="BH131" t="s">
         <v>171</v>
@@ -33020,13 +33014,13 @@
         <v>171</v>
       </c>
       <c r="BE132" t="s">
+        <v>1425</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG132" t="s">
         <v>1291</v>
-      </c>
-      <c r="BF132" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG132" t="s">
-        <v>1425</v>
       </c>
       <c r="BH132" t="s">
         <v>171</v>
@@ -33088,13 +33082,13 @@
         <v>171</v>
       </c>
       <c r="BE133" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BF133" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG133" t="s">
         <v>1292</v>
-      </c>
-      <c r="BF133" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG133" t="s">
-        <v>1426</v>
       </c>
       <c r="BH133" t="s">
         <v>171</v>
@@ -33156,13 +33150,13 @@
         <v>171</v>
       </c>
       <c r="BE134" t="s">
+        <v>1427</v>
+      </c>
+      <c r="BF134" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG134" t="s">
         <v>1293</v>
-      </c>
-      <c r="BF134" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG134" t="s">
-        <v>1427</v>
       </c>
       <c r="BH134" t="s">
         <v>171</v>
@@ -33224,13 +33218,13 @@
         <v>171</v>
       </c>
       <c r="BE135" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BF135" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG135" t="s">
         <v>1294</v>
-      </c>
-      <c r="BF135" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG135" t="s">
-        <v>1428</v>
       </c>
       <c r="BH135" t="s">
         <v>171</v>
@@ -33292,13 +33286,13 @@
         <v>171</v>
       </c>
       <c r="BE136" t="s">
+        <v>1429</v>
+      </c>
+      <c r="BF136" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG136" t="s">
         <v>1295</v>
-      </c>
-      <c r="BF136" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG136" t="s">
-        <v>1429</v>
       </c>
       <c r="BH136" t="s">
         <v>171</v>
@@ -33360,13 +33354,13 @@
         <v>171</v>
       </c>
       <c r="BE137" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BF137" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG137" t="s">
         <v>1296</v>
-      </c>
-      <c r="BF137" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG137" t="s">
-        <v>1430</v>
       </c>
       <c r="BH137" t="s">
         <v>171</v>
@@ -59089,7 +59083,7 @@
       <formula1>'Codelijsten'!$AG$4:$AG$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD8:CD1000001">
-      <formula1>'Codelijsten'!$AI$4:$AI$19</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL8:CL1000001">
       <formula1>'Codelijsten'!$AK$4:$AK$14</formula1>
@@ -59147,8 +59141,8 @@
     <col min="3" max="3" width="34.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
     <col min="8" max="9" width="50.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="72.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="60.7109375" style="3" customWidth="1"/>
@@ -59643,7 +59637,7 @@
         <v>1068</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1071</v>
@@ -60037,8 +60031,8 @@
   <hyperlinks>
     <hyperlink ref="B5" location="'Codelijsten'!$AQ$2" display="filtertype"/>
     <hyperlink ref="D5" location="'Codelijsten'!$AS$2" display="meetnet"/>
-    <hyperlink ref="F5" location="'Codelijsten'!$AU$2" display="ligging-aquifer"/>
-    <hyperlink ref="G5" location="'Codelijsten'!$AW$2" display="ligging-aquifer_hcovv2"/>
+    <hyperlink ref="F5" location="'Codelijsten'!$AU$2" display="ligging-aquifer_hcovv2"/>
+    <hyperlink ref="G5" location="'Codelijsten'!$AW$2" display="ligging-aquifer"/>
     <hyperlink ref="H5" location="'Codelijsten'!$AY$2" display="ligging-grondwaterlichaam"/>
     <hyperlink ref="I5" location="'Codelijsten'!$BA$2" display="ligging-grondwatersysteem"/>
     <hyperlink ref="K5" location="'Codelijsten'!$BC$2" display="ligging-hydrogeologisch_regime"/>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10428,25 +10428,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-04-17 10:01:18.948924</t>
+    <t>2025-06-27 02:17:30.472185</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.4</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.2</t>
+    <t>9.2.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10428,13 +10428,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:30.472185</t>
+    <t>2025-08-06 15:10:51.318368</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>
@@ -59945,7 +59945,7 @@
     <mergeCell ref="BN3:BO3"/>
     <mergeCell ref="BG2:BO2"/>
   </mergeCells>
-  <dataValidations count="27">
+  <dataValidations count="28">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1000001">
       <formula1>'Codelijsten'!$AQ$4:$AQ$10</formula1>
     </dataValidation>
@@ -59990,6 +59990,9 @@
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6:T1000001">
       <formula1>-146096</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1000001">
+      <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V1000001">
       <formula1>'Codelijsten'!$BQ$4:$BQ$7</formula1>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10428,13 +10428,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:51.318368</t>
+    <t>2025-09-18 15:21:07.558881</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10515,7 +10515,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:27:59.195855</t>
+    <t>2025-09-22 09:59:13.402450</t>
   </si>
   <si>
     <t>version</t>
@@ -59594,58 +59594,58 @@
   </mergeCells>
   <dataValidations count="30">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$5</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$16</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$6</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$17</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$351</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$351</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8:W1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$6</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8:X1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$20</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$6</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$20</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS8:AS1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU8:AU1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$6</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV8:AV1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$20</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF8:BF1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$7</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$7</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI8:BI1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ8:BJ1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$13</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$13</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK8:BK1000001">
       <formula1>-146096</formula1>
@@ -59654,34 +59654,34 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU8:BU1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$7</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW8:BW1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY8:BY1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$17</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CC8:CC1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$11</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD8:CD1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$19</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL8:CL1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$14</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$14</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CS8:CS1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CU8:CU1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$8</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CW8:CW1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DA8:DA1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$86</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -60530,46 +60530,46 @@
   </mergeCells>
   <dataValidations count="28">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$10</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$18</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$AU$4:''$AU$137</formula1>
+      <formula1>'Codelijsten'!$AU$4:$AU$137</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
-      <formula1>'Codelijsten'!$AW$4:''$AW$137</formula1>
+      <formula1>'Codelijsten'!$AW$4:$AW$137</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000001">
-      <formula1>'Codelijsten'!$AY$4:''$AY$51</formula1>
+      <formula1>'Codelijsten'!$AY$4:$AY$51</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000001">
-      <formula1>'Codelijsten'!$BA$4:''$BA$11</formula1>
+      <formula1>'Codelijsten'!$BA$4:$BA$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1000001">
-      <formula1>'Codelijsten'!$BC$4:''$BC$9</formula1>
+      <formula1>'Codelijsten'!$BC$4:$BC$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
-      <formula1>'Codelijsten'!$BE$4:''$BE$137</formula1>
+      <formula1>'Codelijsten'!$BE$4:$BE$137</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M1000001">
-      <formula1>'Codelijsten'!$BG$4:''$BG$137</formula1>
+      <formula1>'Codelijsten'!$BG$4:$BG$137</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
-      <formula1>'Codelijsten'!$BI$4:''$BI$5</formula1>
+      <formula1>'Codelijsten'!$BI$4:$BI$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O1000001">
-      <formula1>'Codelijsten'!$BK$4:''$BK$26</formula1>
+      <formula1>'Codelijsten'!$BK$4:$BK$26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$BM$4:''$BM$27</formula1>
+      <formula1>'Codelijsten'!$BM$4:$BM$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q1000001">
-      <formula1>'Codelijsten'!$BO$4:''$BO$7</formula1>
+      <formula1>'Codelijsten'!$BO$4:$BO$7</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6:T1000001">
       <formula1>-146096</formula1>
@@ -60578,40 +60578,40 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V1000001">
-      <formula1>'Codelijsten'!$BQ$4:''$BQ$7</formula1>
+      <formula1>'Codelijsten'!$BQ$4:$BQ$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH1000001">
-      <formula1>'Codelijsten'!$BS$4:''$BS$10</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
-      <formula1>'Codelijsten'!$BU$4:''$BU$17</formula1>
+      <formula1>'Codelijsten'!$BU$4:$BU$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL1000001">
-      <formula1>'Codelijsten'!$BW$4:''$BW$8</formula1>
+      <formula1>'Codelijsten'!$BW$4:$BW$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM1000001">
-      <formula1>'Codelijsten'!$BY$4:''$BY$17</formula1>
+      <formula1>'Codelijsten'!$BY$4:$BY$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
-      <formula1>'Codelijsten'!$CA$4:''$CA$10</formula1>
+      <formula1>'Codelijsten'!$CA$4:$CA$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT1000001">
-      <formula1>'Codelijsten'!$CC$4:''$CC$14</formula1>
+      <formula1>'Codelijsten'!$CC$4:$CC$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AW1000001">
-      <formula1>'Codelijsten'!$CE$4:''$CE$11</formula1>
+      <formula1>'Codelijsten'!$CE$4:$CE$11</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD6:BD1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF6:BF1000001">
-      <formula1>'Codelijsten'!$CG$4:''$CG$8</formula1>
+      <formula1>'Codelijsten'!$CG$4:$CG$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH6:BH1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL6:BL1000001">
-      <formula1>'Codelijsten'!$CI$4:''$CI$86</formula1>
+      <formula1>'Codelijsten'!$CI$4:$CI$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -63984,16 +63984,16 @@
   </mergeCells>
   <dataValidations count="53">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1000001">
-      <formula1>'Codelijsten'!$CK$4:''$CK$10</formula1>
+      <formula1>'Codelijsten'!$CK$4:$CK$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F1000001">
-      <formula1>'Codelijsten'!$CM$4:''$CM$8</formula1>
+      <formula1>'Codelijsten'!$CM$4:$CM$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G1000001">
-      <formula1>'Codelijsten'!$CO$4:''$CO$20</formula1>
+      <formula1>'Codelijsten'!$CO$4:$CO$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:N1000001">
       <formula1>-146096</formula1>
@@ -64002,22 +64002,22 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P1000001">
-      <formula1>'Codelijsten'!$CQ$4:''$CQ$12</formula1>
+      <formula1>'Codelijsten'!$CQ$4:$CQ$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:T1000001">
-      <formula1>'Codelijsten'!$CS$4:''$CS$23</formula1>
+      <formula1>'Codelijsten'!$CS$4:$CS$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:U1000001">
-      <formula1>'Codelijsten'!$CU$4:''$CU$6</formula1>
+      <formula1>'Codelijsten'!$CU$4:$CU$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10:AA1000001">
-      <formula1>'Codelijsten'!$CW$4:''$CW$6</formula1>
+      <formula1>'Codelijsten'!$CW$4:$CW$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10:AB1000001">
-      <formula1>'Codelijsten'!$CY$4:''$CY$6</formula1>
+      <formula1>'Codelijsten'!$CY$4:$CY$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC10:AC1000001">
-      <formula1>'Codelijsten'!$DA$4:''$DA$8</formula1>
+      <formula1>'Codelijsten'!$DA$4:$DA$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK10:AK1000001">
       <formula1>-146096</formula1>
@@ -64026,7 +64026,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM10:AM1000001">
-      <formula1>'Codelijsten'!$DC$4:''$DC$25</formula1>
+      <formula1>'Codelijsten'!$DC$4:$DC$25</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BA1000001">
       <formula1>-146096</formula1>
@@ -64035,22 +64035,22 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC10:BC1000001">
-      <formula1>'Codelijsten'!$DE$4:''$DE$12</formula1>
+      <formula1>'Codelijsten'!$DE$4:$DE$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG10:BG1000001">
-      <formula1>'Codelijsten'!$DG$4:''$DG$23</formula1>
+      <formula1>'Codelijsten'!$DG$4:$DG$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH10:BH1000001">
-      <formula1>'Codelijsten'!$DI$4:''$DI$6</formula1>
+      <formula1>'Codelijsten'!$DI$4:$DI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN10:BN1000001">
-      <formula1>'Codelijsten'!$DK$4:''$DK$6</formula1>
+      <formula1>'Codelijsten'!$DK$4:$DK$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO10:BO1000001">
-      <formula1>'Codelijsten'!$DM$4:''$DM$6</formula1>
+      <formula1>'Codelijsten'!$DM$4:$DM$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP10:BP1000001">
-      <formula1>'Codelijsten'!$DO$4:''$DO$8</formula1>
+      <formula1>'Codelijsten'!$DO$4:$DO$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX10:BX1000001">
       <formula1>-146096</formula1>
@@ -64068,31 +64068,31 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DW10:DW1000001">
-      <formula1>'Codelijsten'!$DQ$4:''$DQ$86</formula1>
+      <formula1>'Codelijsten'!$DQ$4:$DQ$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EA10:EA1000001">
-      <formula1>'Codelijsten'!$DS$4:''$DS$1003</formula1>
+      <formula1>'Codelijsten'!$DS$4:$DS$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EN10:EN1000001">
-      <formula1>'Codelijsten'!$DU$4:''$DU$68</formula1>
+      <formula1>'Codelijsten'!$DU$4:$DU$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EO10:EO1000001">
-      <formula1>'Codelijsten'!$DW$4:''$DW$68</formula1>
+      <formula1>'Codelijsten'!$DW$4:$DW$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ES10:ES1000001">
-      <formula1>'Codelijsten'!$DY$4:''$DY$5</formula1>
+      <formula1>'Codelijsten'!$DY$4:$DY$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ET10:ET1000001">
-      <formula1>'Codelijsten'!$EA$4:''$EA$5</formula1>
+      <formula1>'Codelijsten'!$EA$4:$EA$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EV10:EV1000001">
-      <formula1>'Codelijsten'!$EC$4:''$EC$68</formula1>
+      <formula1>'Codelijsten'!$EC$4:$EC$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EW10:EW1000001">
-      <formula1>'Codelijsten'!$EE$4:''$EE$6</formula1>
+      <formula1>'Codelijsten'!$EE$4:$EE$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EZ10:EZ1000001">
-      <formula1>'Codelijsten'!$EG$4:''$EG$181</formula1>
+      <formula1>'Codelijsten'!$EG$4:$EG$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FA10:FA1000001">
       <formula1>-146096</formula1>
@@ -64101,13 +64101,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FD10:FD1000001">
-      <formula1>'Codelijsten'!$EI$4:''$EI$6</formula1>
+      <formula1>'Codelijsten'!$EI$4:$EI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FZ10:FZ1000001">
-      <formula1>'Codelijsten'!$EK$4:''$EK$1003</formula1>
+      <formula1>'Codelijsten'!$EK$4:$EK$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GC10:GC1000001">
-      <formula1>'Codelijsten'!$EM$4:''$EM$68</formula1>
+      <formula1>'Codelijsten'!$EM$4:$EM$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GF10:GF1000001">
       <formula1>-146096</formula1>
@@ -64119,16 +64119,16 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GS10:GS1000001">
-      <formula1>'Codelijsten'!$EO$4:''$EO$86</formula1>
+      <formula1>'Codelijsten'!$EO$4:$EO$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HD10:HD1000001">
-      <formula1>'Codelijsten'!$EQ$4:''$EQ$6</formula1>
+      <formula1>'Codelijsten'!$EQ$4:$EQ$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HR10:HR1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HU10:HU1000001">
-      <formula1>'Codelijsten'!$ES$4:''$ES$14</formula1>
+      <formula1>'Codelijsten'!$ES$4:$ES$14</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HW10:HW1000001">
       <formula1>-146096</formula1>
@@ -64137,10 +64137,10 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HZ10:HZ1000001">
-      <formula1>'Codelijsten'!$EU$4:''$EU$6</formula1>
+      <formula1>'Codelijsten'!$EU$4:$EU$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IB10:IB1000001">
-      <formula1>'Codelijsten'!$EW$4:''$EW$6</formula1>
+      <formula1>'Codelijsten'!$EW$4:$EW$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -64870,13 +64870,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1000001">
-      <formula1>'Codelijsten'!$EY$4:''$EY$8</formula1>
+      <formula1>'Codelijsten'!$EY$4:$EY$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
-      <formula1>'Codelijsten'!$FA$4:''$FA$18</formula1>
+      <formula1>'Codelijsten'!$FA$4:$FA$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1000001">
-      <formula1>'Codelijsten'!$FC$4:''$FC$29</formula1>
+      <formula1>'Codelijsten'!$FC$4:$FC$29</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
       <formula1>-146096</formula1>
@@ -64885,7 +64885,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AX1000001">
-      <formula1>'Codelijsten'!$FE$4:''$FE$86</formula1>
+      <formula1>'Codelijsten'!$FE$4:$FE$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -65702,25 +65702,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$FG$4:''$FG$14</formula1>
+      <formula1>'Codelijsten'!$FG$4:$FG$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$FI$4:''$FI$5</formula1>
+      <formula1>'Codelijsten'!$FI$4:$FI$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$FK$4:''$FK$86</formula1>
+      <formula1>'Codelijsten'!$FK$4:$FK$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$FM$4:''$FM$12</formula1>
+      <formula1>'Codelijsten'!$FM$4:$FM$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$FO$4:''$FO$40</formula1>
+      <formula1>'Codelijsten'!$FO$4:$FO$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$FQ$4:''$FQ$6</formula1>
+      <formula1>'Codelijsten'!$FQ$4:$FQ$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -65738,7 +65738,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$FS$4:''$FS$86</formula1>
+      <formula1>'Codelijsten'!$FS$4:$FS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -66759,25 +66759,25 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$FU$4:''$FU$1003</formula1>
+      <formula1>'Codelijsten'!$FU$4:$FU$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$FW$4:''$FW$68</formula1>
+      <formula1>'Codelijsten'!$FW$4:$FW$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$FY$4:''$FY$68</formula1>
+      <formula1>'Codelijsten'!$FY$4:$FY$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T1000001">
-      <formula1>'Codelijsten'!$GA$4:''$GA$6</formula1>
+      <formula1>'Codelijsten'!$GA$4:$GA$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$GC$4:''$GC$68</formula1>
+      <formula1>'Codelijsten'!$GC$4:$GC$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
-      <formula1>'Codelijsten'!$GE$4:''$GE$6</formula1>
+      <formula1>'Codelijsten'!$GE$4:$GE$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF8:AF1000001">
-      <formula1>'Codelijsten'!$GG$4:''$GG$181</formula1>
+      <formula1>'Codelijsten'!$GG$4:$GG$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
@@ -66786,16 +66786,16 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$GI$4:''$GI$6</formula1>
+      <formula1>'Codelijsten'!$GI$4:$GI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ1000001">
-      <formula1>'Codelijsten'!$GK$4:''$GK$5</formula1>
+      <formula1>'Codelijsten'!$GK$4:$GK$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$GM$4:''$GM$1003</formula1>
+      <formula1>'Codelijsten'!$GM$4:$GM$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
-      <formula1>'Codelijsten'!$GO$4:''$GO$68</formula1>
+      <formula1>'Codelijsten'!$GO$4:$GO$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH8:BH1000001">
       <formula1>-146096</formula1>
@@ -66807,7 +66807,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU8:BU1000001">
-      <formula1>'Codelijsten'!$GQ$4:''$GQ$86</formula1>
+      <formula1>'Codelijsten'!$GQ$4:$GQ$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -66933,7 +66933,7 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1000001">
-      <formula1>'Codelijsten'!$GS$4:''$GS$10</formula1>
+      <formula1>'Codelijsten'!$GS$4:$GS$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1000001">
       <formula1>-146096</formula1>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10515,7 +10515,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:13.402450</t>
+    <t>2025-09-22 11:00:01.818702</t>
   </si>
   <si>
     <t>version</t>
@@ -10533,7 +10533,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10515,13 +10515,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:01.818702</t>
+    <t>2025-09-24 17:44:31.797356</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10515,13 +10515,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:31.797356</t>
+    <t>2025-09-24 22:46:45.541650</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template_full.xlsx
+++ b/templates/productie/productie_grondwater_template_full.xlsx
@@ -10476,7 +10476,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:22.057778</t>
+    <t>2026-01-01 02:16:21.719783</t>
   </si>
   <si>
     <t>version</t>
